--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533904\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533976\Documents\44663\MVC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,10 @@
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Credits" sheetId="2" r:id="rId2"/>
     <sheet name="Degree Credit" sheetId="3" r:id="rId3"/>
-    <sheet name="dEE" sheetId="4" r:id="rId4"/>
+    <sheet name="DegreePlan" sheetId="4" r:id="rId4"/>
     <sheet name="StudentId" sheetId="5" r:id="rId5"/>
     <sheet name="slot" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Term" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Spring2020</t>
   </si>
   <si>
-    <t>S533</t>
-  </si>
-  <si>
     <t>su20</t>
   </si>
   <si>
@@ -252,6 +249,30 @@
   </si>
   <si>
     <t xml:space="preserve"> number(7)StudentID[pk</t>
+  </si>
+  <si>
+    <t>S533976</t>
+  </si>
+  <si>
+    <t>S533489</t>
+  </si>
+  <si>
+    <t>S533714</t>
+  </si>
+  <si>
+    <t>Fall2020</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>su19</t>
+  </si>
+  <si>
+    <t>Spring2018</t>
   </si>
 </sst>
 </file>
@@ -287,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -297,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,7 +1462,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1513,7 @@
         <v>1235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1506,7 +1530,7 @@
         <v>1236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1523,7 +1547,7 @@
         <v>1237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1748,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,14 +1967,14 @@
       <c r="B11" s="2">
         <v>1234</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
-        <v>691</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1964,11 +1988,11 @@
       <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <v>618</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1983,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>55</v>
@@ -1995,13 +2019,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>356</v>
+        <v>691</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
@@ -2013,13 +2037,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>563</v>
+        <v>692</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>55</v>
@@ -2028,7 +2052,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>1235</v>
@@ -2040,13 +2064,13 @@
         <v>542</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1235</v>
@@ -2055,52 +2079,52 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>460</v>
+        <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1235</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>560</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1235</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>555</v>
+        <v>644</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>1235</v>
@@ -2109,34 +2133,34 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1235</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>618</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>1235</v>
@@ -2145,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>691</v>
+        <v>618</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -2154,16 +2178,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1235</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -2172,7 +2196,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1235</v>
@@ -2190,16 +2214,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>1235</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -2208,16 +2232,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>1235</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>6</v>
+        <v>555</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
@@ -2225,30 +2249,36 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1236</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>460</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,7 +2290,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2307,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>50</v>
@@ -2377,7 +2407,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>69</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -2409,59 +2439,119 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533976\Documents\44663\MVC-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533489\Documents\44663\MVC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -158,9 +158,6 @@
     <t>S533904</t>
   </si>
   <si>
-    <t>S53</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -273,6 +270,39 @@
   </si>
   <si>
     <t>Spring2018</t>
+  </si>
+  <si>
+    <t>S533490</t>
+  </si>
+  <si>
+    <t>S533491</t>
+  </si>
+  <si>
+    <t>S533492</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S533976`</t>
+  </si>
+  <si>
+    <t>Meenavilli</t>
+  </si>
+  <si>
+    <t>Mehar Choudhary</t>
+  </si>
+  <si>
+    <t>Dasari</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>Valluru</t>
+  </si>
+  <si>
+    <t>Aakash</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1543,7 @@
         <v>1235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1530,7 +1560,7 @@
         <v>1236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1547,7 +1577,7 @@
         <v>1237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1689,7 +1719,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,13 +1733,13 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="2">
         <v>919</v>
@@ -1720,10 +1750,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
@@ -1732,38 +1762,56 @@
         <v>91957050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
-        <v>919</v>
+        <v>919571539</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
-        <v>919</v>
+        <v>919568241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>919568635</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,29 +1820,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1812,7 +1860,7 @@
         <v>542</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1830,7 +1878,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1848,7 +1896,7 @@
         <v>560</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1866,7 +1914,7 @@
         <v>664</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1884,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1902,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1917,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1938,7 +1986,7 @@
         <v>555</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1956,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1971,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1989,10 +2037,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2010,7 +2058,7 @@
         <v>618</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -2028,7 +2076,7 @@
         <v>691</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2046,7 +2094,7 @@
         <v>692</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -2064,7 +2112,7 @@
         <v>542</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -2082,7 +2130,7 @@
         <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -2100,7 +2148,7 @@
         <v>560</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -2112,13 +2160,13 @@
         <v>1235</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>644</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -2136,7 +2184,7 @@
         <v>664</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -2154,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2172,7 +2220,7 @@
         <v>618</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2190,7 +2238,7 @@
         <v>691</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -2208,7 +2256,7 @@
         <v>692</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -2226,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2244,41 +2292,224 @@
         <v>555</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>542</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>563</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>560</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>618</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>691</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>664</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>692</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>555</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2290,7 +2521,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,22 +2535,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2334,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -2355,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -2376,10 +2607,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2397,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -2418,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2439,10 +2670,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -2460,10 +2691,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2475,16 +2706,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -2496,16 +2727,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -2517,16 +2748,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -2538,56 +2769,104 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
   </sheetData>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533489\Documents\44663\MVC-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#NET\MVC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -125,18 +125,9 @@
     <t>Elective2</t>
   </si>
   <si>
-    <t>DegreeCreditID</t>
-  </si>
-  <si>
     <t>DegreeID</t>
   </si>
   <si>
-    <t>DegreePlanID</t>
-  </si>
-  <si>
-    <t>StudentID</t>
-  </si>
-  <si>
     <t>DegereePlanAbbrev</t>
   </si>
   <si>
@@ -173,12 +164,6 @@
     <t>Taraka</t>
   </si>
   <si>
-    <t>SlotID</t>
-  </si>
-  <si>
-    <t>DegreePlan</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>StudentTerm</t>
-  </si>
-  <si>
     <t>TermAbbr</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
     <t>summer2020</t>
   </si>
   <si>
-    <t xml:space="preserve"> number(7)StudentID[pk</t>
-  </si>
-  <si>
     <t>S533976</t>
   </si>
   <si>
@@ -303,6 +282,63 @@
   </si>
   <si>
     <t>Aakash</t>
+  </si>
+  <si>
+    <t>S533715</t>
+  </si>
+  <si>
+    <t>S533716</t>
+  </si>
+  <si>
+    <t>S533717</t>
+  </si>
+  <si>
+    <t>S533718</t>
+  </si>
+  <si>
+    <t>S533719</t>
+  </si>
+  <si>
+    <t>Summer2020</t>
+  </si>
+  <si>
+    <t>Su20</t>
+  </si>
+  <si>
+    <t>StudentTerm(pk)</t>
+  </si>
+  <si>
+    <t>Term(fk)</t>
+  </si>
+  <si>
+    <t>StudentID(pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StudentID(fk)</t>
+  </si>
+  <si>
+    <t>DegreePlanID(pk)</t>
+  </si>
+  <si>
+    <t>StudentID(fk)</t>
+  </si>
+  <si>
+    <t>DegreeCreditID(PK)</t>
+  </si>
+  <si>
+    <t>CreditID(pk)</t>
+  </si>
+  <si>
+    <t>DegreeID(pk)</t>
+  </si>
+  <si>
+    <t>DegreePlanID(fk)</t>
+  </si>
+  <si>
+    <t>SlotID(pk)</t>
+  </si>
+  <si>
+    <t>CreditID(fk)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -352,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,9 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B22:B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -723,9 +758,9 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -943,9 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -956,10 +989,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -1492,7 +1525,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,18 +1537,18 @@
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1526,13 +1559,13 @@
         <v>1234</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1543,13 +1576,13 @@
         <v>1235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1560,13 +1593,13 @@
         <v>1236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1577,13 +1610,13 @@
         <v>1237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1718,9 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1730,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2">
         <v>919</v>
@@ -1747,16 +1778,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>91957050</v>
@@ -1764,16 +1795,16 @@
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>919571539</v>
@@ -1781,16 +1812,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>919568241</v>
@@ -1798,16 +1829,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>919568635</v>
@@ -1820,29 +1851,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1860,7 +1891,7 @@
         <v>542</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1878,7 +1909,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1896,7 +1927,7 @@
         <v>560</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1914,7 +1945,7 @@
         <v>664</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1932,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1950,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1965,10 +1996,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1986,7 +2017,7 @@
         <v>555</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -2004,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -2019,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2037,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2058,7 +2089,7 @@
         <v>618</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -2076,7 +2107,7 @@
         <v>691</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2094,7 +2125,7 @@
         <v>692</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -2112,7 +2143,7 @@
         <v>542</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -2130,7 +2161,7 @@
         <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -2148,7 +2179,7 @@
         <v>560</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -2166,7 +2197,7 @@
         <v>644</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -2184,7 +2215,7 @@
         <v>664</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -2202,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2220,7 +2251,7 @@
         <v>618</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2238,7 +2269,7 @@
         <v>691</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -2256,7 +2287,7 @@
         <v>692</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -2274,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2292,7 +2323,7 @@
         <v>555</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2310,7 +2341,7 @@
         <v>542</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2328,7 +2359,7 @@
         <v>563</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2346,7 +2377,7 @@
         <v>560</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -2364,7 +2395,7 @@
         <v>618</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -2382,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2430,7 @@
         <v>691</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,7 +2464,7 @@
         <v>664</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2450,7 +2481,7 @@
         <v>692</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,7 +2498,7 @@
         <v>555</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,32 +2515,212 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>542</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>563</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>560</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>664</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>555</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>691</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>618</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1237</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>692</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2518,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,22 +2746,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2565,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -2586,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -2607,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2628,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -2643,16 +2854,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2664,16 +2875,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -2685,16 +2896,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2706,16 +2917,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -2727,16 +2938,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -2748,16 +2959,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -2769,16 +2980,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -2790,16 +3001,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -2811,16 +3022,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -2832,16 +3043,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -2853,21 +3064,149 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1949,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1234</v>
       </c>
       <c r="C2" s="1">
@@ -1967,7 +1967,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>1234</v>
       </c>
       <c r="C3" s="1">
@@ -1985,7 +1985,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>1234</v>
       </c>
       <c r="C4" s="1">
@@ -2003,7 +2003,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>1234</v>
       </c>
       <c r="C5" s="1">
@@ -2021,7 +2021,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>1234</v>
       </c>
       <c r="C6" s="1">
@@ -2039,7 +2039,7 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>1234</v>
       </c>
       <c r="C7" s="1">
@@ -2057,7 +2057,7 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>1234</v>
       </c>
       <c r="C8" s="1">
@@ -2075,7 +2075,7 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>1234</v>
       </c>
       <c r="C9" s="1">
@@ -2093,7 +2093,7 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>1234</v>
       </c>
       <c r="C10" s="1">
@@ -2111,7 +2111,7 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>1234</v>
       </c>
       <c r="C11" s="3">
@@ -2129,7 +2129,7 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>1234</v>
       </c>
       <c r="C12" s="1">
@@ -2147,7 +2147,7 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>1234</v>
       </c>
       <c r="C13" s="1">
@@ -2165,7 +2165,7 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>1234</v>
       </c>
       <c r="C14" s="1">
@@ -2183,7 +2183,7 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>1234</v>
       </c>
       <c r="C15" s="1">
@@ -2201,7 +2201,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>1235</v>
       </c>
       <c r="C16" s="1">
@@ -2219,7 +2219,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>1235</v>
       </c>
       <c r="C17" s="1">
@@ -2237,7 +2237,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>1235</v>
       </c>
       <c r="C18" s="1">
@@ -2255,7 +2255,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>1235</v>
       </c>
       <c r="C19" s="1">
@@ -2273,7 +2273,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>1235</v>
       </c>
       <c r="C20" s="1">
@@ -2291,7 +2291,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>1235</v>
       </c>
       <c r="C21" s="1">
@@ -2309,7 +2309,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>1235</v>
       </c>
       <c r="C22" s="1">
@@ -2327,7 +2327,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>1235</v>
       </c>
       <c r="C23" s="1">
@@ -2345,7 +2345,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>1235</v>
       </c>
       <c r="C24" s="1">
@@ -2363,7 +2363,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>1235</v>
       </c>
       <c r="C25" s="1">
@@ -2381,7 +2381,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>1235</v>
       </c>
       <c r="C26" s="1">
@@ -2399,7 +2399,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>1236</v>
       </c>
       <c r="C27" s="1">
@@ -2417,7 +2417,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>1236</v>
       </c>
       <c r="C28" s="1">
@@ -2435,7 +2435,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>1236</v>
       </c>
       <c r="C29" s="1">
@@ -2453,7 +2453,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>1236</v>
       </c>
       <c r="C30" s="1">
@@ -2471,7 +2471,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>1236</v>
       </c>
       <c r="C31" s="1">
@@ -2488,7 +2488,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>1236</v>
       </c>
       <c r="C32" s="1">
@@ -2505,7 +2505,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>1236</v>
       </c>
       <c r="C33" s="1">
@@ -2522,7 +2522,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="8">
         <v>1236</v>
       </c>
       <c r="C34" s="1">
@@ -2539,7 +2539,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>1236</v>
       </c>
       <c r="C35" s="1">
@@ -2556,7 +2556,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="8">
         <v>1236</v>
       </c>
       <c r="C36" s="1">
@@ -2573,7 +2573,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="8">
         <v>1236</v>
       </c>
       <c r="C37" s="1">
@@ -2590,7 +2590,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="8">
         <v>1237</v>
       </c>
       <c r="C38" s="1">
@@ -2607,7 +2607,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>1237</v>
       </c>
       <c r="C39" s="1">
@@ -2624,7 +2624,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>1237</v>
       </c>
       <c r="C40" s="1">
@@ -2641,7 +2641,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>1237</v>
       </c>
       <c r="C41" s="1">
@@ -2658,7 +2658,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>1237</v>
       </c>
       <c r="C42" s="1">
@@ -2675,7 +2675,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="8">
         <v>1237</v>
       </c>
       <c r="C43" s="1">
@@ -2692,7 +2692,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>1237</v>
       </c>
       <c r="C44" s="1">
@@ -2709,7 +2709,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="8">
         <v>1237</v>
       </c>
       <c r="C45" s="1">
@@ -2726,7 +2726,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="8">
         <v>1237</v>
       </c>
       <c r="C46" s="1">
@@ -2743,7 +2743,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="8">
         <v>1237</v>
       </c>
       <c r="C47" s="1">
@@ -2760,7 +2760,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>1237</v>
       </c>
       <c r="C48" s="1">
@@ -2777,7 +2777,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="8">
         <v>1237</v>
       </c>
       <c r="C49" s="1">
@@ -2794,7 +2794,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>1238</v>
       </c>
       <c r="C50" s="1">
@@ -2811,7 +2811,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>1238</v>
       </c>
       <c r="C51" s="1">
@@ -2828,7 +2828,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>1238</v>
       </c>
       <c r="C52" s="1">
@@ -2845,7 +2845,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>1238</v>
       </c>
       <c r="C53" s="1">
@@ -2862,7 +2862,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>1238</v>
       </c>
       <c r="C54" s="1">
@@ -2879,7 +2879,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>1238</v>
       </c>
       <c r="C55" s="1">
@@ -2896,7 +2896,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>1238</v>
       </c>
       <c r="C56" s="1">
@@ -2913,7 +2913,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>1238</v>
       </c>
       <c r="C57" s="1">
@@ -2930,7 +2930,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>1238</v>
       </c>
       <c r="C58" s="1">
@@ -2947,7 +2947,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>1238</v>
       </c>
       <c r="C59" s="3">
@@ -2964,7 +2964,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>1238</v>
       </c>
       <c r="C60" s="1">
@@ -2981,7 +2981,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>1238</v>
       </c>
       <c r="C61" s="1">
@@ -2998,7 +2998,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>1238</v>
       </c>
       <c r="C62" s="1">
@@ -3015,7 +3015,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>1238</v>
       </c>
       <c r="C63" s="1">
@@ -3032,7 +3032,7 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>1239</v>
       </c>
       <c r="C64" s="1">
@@ -3049,7 +3049,7 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>1239</v>
       </c>
       <c r="C65" s="1">
@@ -3066,7 +3066,7 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>1239</v>
       </c>
       <c r="C66" s="1">
@@ -3083,7 +3083,7 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>1239</v>
       </c>
       <c r="C67" s="1">
@@ -3100,7 +3100,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>1239</v>
       </c>
       <c r="C68" s="1">
@@ -3117,7 +3117,7 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>1239</v>
       </c>
       <c r="C69" s="1">
@@ -3134,7 +3134,7 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>1239</v>
       </c>
       <c r="C70" s="1">
@@ -3151,7 +3151,7 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>1239</v>
       </c>
       <c r="C71" s="1">
@@ -3168,7 +3168,7 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>1239</v>
       </c>
       <c r="C72" s="1">
@@ -3185,7 +3185,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>1239</v>
       </c>
       <c r="C73" s="1">
@@ -3202,7 +3202,7 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>1239</v>
       </c>
       <c r="C74" s="1">
@@ -3212,6 +3212,397 @@
         <v>555</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>26</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>542</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>27</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>563</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>28</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>560</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>29</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>618</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>30</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>31</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>691</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>32</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>33</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>664</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>34</v>
+      </c>
+      <c r="B83" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>692</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>35</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>555</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>36</v>
+      </c>
+      <c r="B85" s="7">
+        <v>1240</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>37</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>542</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>38</v>
+      </c>
+      <c r="B87" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>563</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>39</v>
+      </c>
+      <c r="B88" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>560</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>40</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>41</v>
+      </c>
+      <c r="B90" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42</v>
+      </c>
+      <c r="B91" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>664</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44</v>
+      </c>
+      <c r="B93" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>555</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>46</v>
+      </c>
+      <c r="B95" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>691</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>47</v>
+      </c>
+      <c r="B96" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>618</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>48</v>
+      </c>
+      <c r="B97" s="7">
+        <v>1241</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>692</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3224,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -170,9 +170,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -182,18 +179,12 @@
     <t>TermName</t>
   </si>
   <si>
-    <t>No.OfCoursesTaken</t>
-  </si>
-  <si>
     <t>F18</t>
   </si>
   <si>
     <t>Fall2018</t>
   </si>
   <si>
-    <t>s19</t>
-  </si>
-  <si>
     <t>Spring2019</t>
   </si>
   <si>
@@ -209,18 +200,9 @@
     <t>Fall2019</t>
   </si>
   <si>
-    <t>s20</t>
-  </si>
-  <si>
     <t>Spring2020</t>
   </si>
   <si>
-    <t>su20</t>
-  </si>
-  <si>
-    <t>summer2020</t>
-  </si>
-  <si>
     <t>S533976</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>S19</t>
   </si>
   <si>
-    <t>su19</t>
-  </si>
-  <si>
     <t>Spring2018</t>
   </si>
   <si>
@@ -315,6 +294,15 @@
   </si>
   <si>
     <t>DegreeID(PK)</t>
+  </si>
+  <si>
+    <t>Summer2018</t>
+  </si>
+  <si>
+    <t>Su18</t>
+  </si>
+  <si>
+    <t>S18</t>
   </si>
 </sst>
 </file>
@@ -374,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,10 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,6 +380,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -771,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1002,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -1538,7 +1530,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1544,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -1595,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1612,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1629,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1646,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1663,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1680,7 +1672,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1697,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1829,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>37</v>
@@ -1863,16 +1855,16 @@
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1">
         <v>919571539</v>
@@ -1880,16 +1872,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
         <v>919568241</v>
@@ -1897,16 +1889,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>919568635</v>
@@ -1921,24 +1913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
@@ -1949,8 +1939,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1234</v>
+      <c r="B2" s="3">
+        <v>1235</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1967,8 +1957,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1234</v>
+      <c r="B3" s="3">
+        <v>1235</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1985,8 +1975,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>1234</v>
+      <c r="B4" s="3">
+        <v>1235</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -2001,16 +1991,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1234</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1235</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -2019,16 +2009,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1234</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1235</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>664</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
@@ -2037,10 +2027,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1234</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1235</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -2055,16 +2045,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1234</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1235</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
+      <c r="D8" s="1">
+        <v>618</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>46</v>
@@ -2073,127 +2063,127 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1234</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1235</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>555</v>
+        <v>691</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1234</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1235</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>692</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1234</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1235</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1234</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1235</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>555</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1234</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1236</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>618</v>
+        <v>542</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1234</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1236</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>691</v>
+        <v>563</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1234</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1236</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>692</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2201,17 +2191,17 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>1235</v>
+      <c r="B16" s="6">
+        <v>1236</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2219,17 +2209,17 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>1235</v>
+      <c r="B17" s="6">
+        <v>1236</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2237,17 +2227,17 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>1235</v>
+      <c r="B18" s="6">
+        <v>1236</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>560</v>
+        <v>691</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2255,17 +2245,17 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>1235</v>
+      <c r="B19" s="6">
+        <v>1236</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -2273,17 +2263,17 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>1235</v>
+      <c r="B20" s="6">
+        <v>1236</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>664</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -2291,17 +2281,17 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>1235</v>
+      <c r="B21" s="6">
+        <v>1236</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>6</v>
+        <v>692</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2309,17 +2299,17 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>1235</v>
+      <c r="B22" s="6">
+        <v>1236</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>618</v>
+        <v>555</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2327,17 +2317,17 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>1235</v>
+      <c r="B23" s="6">
+        <v>1236</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>691</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2345,17 +2335,17 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>1235</v>
+      <c r="B24" s="4">
+        <v>1239</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>692</v>
+        <v>542</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2363,17 +2353,17 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>1235</v>
+      <c r="B25" s="4">
+        <v>1239</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>563</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2381,17 +2371,17 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>1235</v>
+      <c r="B26" s="4">
+        <v>1239</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2399,14 +2389,14 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <v>1236</v>
+      <c r="B27" s="4">
+        <v>1239</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>542</v>
+        <v>644</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>45</v>
@@ -2417,14 +2407,14 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
-        <v>1236</v>
+      <c r="B28" s="4">
+        <v>1239</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>45</v>
@@ -2435,14 +2425,14 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
-        <v>1236</v>
+      <c r="B29" s="4">
+        <v>1239</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>560</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>45</v>
@@ -2453,17 +2443,17 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
-        <v>1236</v>
+      <c r="B30" s="4">
+        <v>1239</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>618</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2471,186 +2461,186 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
-        <v>1236</v>
+      <c r="B31" s="4">
+        <v>1239</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
-        <v>1236</v>
+      <c r="B32" s="4">
+        <v>1239</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
-        <v>1236</v>
+      <c r="B33" s="4">
+        <v>1239</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
-        <v>1236</v>
+      <c r="B34" s="4">
+        <v>1239</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>664</v>
+        <v>555</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
-        <v>1236</v>
+      <c r="B35" s="5">
+        <v>1240</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>692</v>
+        <v>542</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
-        <v>1236</v>
+      <c r="B36" s="5">
+        <v>1240</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
-        <v>1236</v>
+      <c r="B37" s="5">
+        <v>1240</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>560</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
-        <v>1237</v>
+      <c r="B38" s="5">
+        <v>1240</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
-        <v>1237</v>
+      <c r="B39" s="5">
+        <v>1240</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
-        <v>1237</v>
+      <c r="B40" s="5">
+        <v>1240</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>560</v>
+        <v>691</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
-        <v>1237</v>
+      <c r="B41" s="5">
+        <v>1240</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2658,953 +2648,279 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
-        <v>1237</v>
+      <c r="B42" s="5">
+        <v>1240</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>6</v>
+        <v>664</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
-        <v>1237</v>
+      <c r="B43" s="5">
+        <v>1240</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>692</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
-        <v>1237</v>
+      <c r="B44" s="5">
+        <v>1240</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>664</v>
+        <v>555</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
-        <v>1237</v>
+      <c r="B45" s="5">
+        <v>1240</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1237</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1237</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>691</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1237</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>618</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1237</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>692</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>542</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>563</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>560</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>664</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C57" s="1">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
-        <v>555</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C59" s="3">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1">
-        <v>618</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C62" s="1">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1">
-        <v>691</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6">
-        <v>1238</v>
-      </c>
-      <c r="C63" s="1">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1">
-        <v>692</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>542</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>563</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>560</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>644</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>664</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1">
-        <v>6</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1">
-        <v>618</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>691</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4</v>
-      </c>
-      <c r="D72" s="1">
-        <v>692</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6">
-        <v>1239</v>
-      </c>
-      <c r="C74" s="1">
-        <v>4</v>
-      </c>
-      <c r="D74" s="1">
-        <v>555</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>26</v>
-      </c>
-      <c r="B75" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>542</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>27</v>
-      </c>
-      <c r="B76" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>563</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>28</v>
-      </c>
-      <c r="B77" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <v>560</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>29</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1">
-        <v>618</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>30</v>
-      </c>
-      <c r="B79" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>31</v>
-      </c>
-      <c r="B80" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1">
-        <v>691</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>32</v>
-      </c>
-      <c r="B81" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C81" s="1">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>33</v>
-      </c>
-      <c r="B82" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C82" s="1">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1">
-        <v>664</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>34</v>
-      </c>
-      <c r="B83" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C83" s="1">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1">
-        <v>692</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>35</v>
-      </c>
-      <c r="B84" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C84" s="1">
-        <v>4</v>
-      </c>
-      <c r="D84" s="1">
-        <v>555</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>36</v>
-      </c>
-      <c r="B85" s="7">
-        <v>1240</v>
-      </c>
-      <c r="C85" s="1">
-        <v>4</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>37</v>
-      </c>
-      <c r="B86" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>542</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>38</v>
-      </c>
-      <c r="B87" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>563</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>39</v>
-      </c>
-      <c r="B88" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>560</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>40</v>
-      </c>
-      <c r="B89" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>41</v>
-      </c>
-      <c r="B90" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C90" s="1">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1">
-        <v>6</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>42</v>
-      </c>
-      <c r="B91" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C91" s="1">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>43</v>
-      </c>
-      <c r="B92" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C92" s="1">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1">
-        <v>664</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>44</v>
-      </c>
-      <c r="B93" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C93" s="1">
-        <v>4</v>
-      </c>
-      <c r="D93" s="1">
-        <v>555</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>45</v>
-      </c>
-      <c r="B94" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C94" s="1">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>46</v>
-      </c>
-      <c r="B95" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>691</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>47</v>
-      </c>
-      <c r="B96" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C96" s="1">
-        <v>5</v>
-      </c>
-      <c r="D96" s="1">
-        <v>618</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>48</v>
-      </c>
-      <c r="B97" s="7">
-        <v>1241</v>
-      </c>
-      <c r="C97" s="1">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1">
-        <v>692</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3615,894 +2931,547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>533904</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="F2" s="7"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>533904</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>533904</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>533904</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>533489</v>
+      </c>
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>533489</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>533489</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>533489</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>533976</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>533976</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>533976</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>533976</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>533714</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>533714</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>533714</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>533714</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>533904</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>533489</v>
-      </c>
-      <c r="C22" s="8">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="6">
-        <v>3</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C27" s="6">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C29" s="6">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="6">
-        <v>3</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="6">
-        <v>3</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="6">
-        <v>2</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>533976</v>
-      </c>
-      <c r="C33" s="6">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="6">
-        <v>3</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="7">
-        <v>3</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="7">
-        <v>3</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C40" s="7">
-        <v>3</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="7">
-        <v>3</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C41" s="7">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C42" s="7">
-        <v>5</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7">
-        <v>533714</v>
-      </c>
-      <c r="C43" s="7">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S20</t>
   </si>
   <si>
-    <t>S533976`</t>
-  </si>
-  <si>
     <t>Meenavilli</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>S18</t>
+  </si>
+  <si>
+    <t>533976`</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -749,7 +749,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -1544,10 +1544,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -1587,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1604,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1638,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1655,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1689,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>37</v>
@@ -1837,8 +1837,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
+      <c r="A2" s="1">
+        <v>533904</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -1871,14 +1871,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
+      <c r="A4" s="1">
+        <v>533489</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
@@ -1888,14 +1888,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
+      <c r="A5" s="1">
+        <v>533714</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>59</v>
@@ -1919,16 +1919,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
@@ -2931,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2945,13 +2945,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
@@ -3049,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>63</v>
@@ -3068,10 +3068,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
@@ -3163,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>533976`</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,9 +693,10 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -693,8 +706,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -704,8 +720,12 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>"new Degree{"&amp; $A$1 &amp;" =  "&amp; A2 &amp;"," &amp;$B$1 &amp; " =  '" &amp; B2 &amp; " ' ," &amp; $C$1 &amp; " = ' " &amp; $C2 &amp; "' },"</f>
+        <v>new Degree{DegreeID(PK) =  1,DegreeAbbrev =  ' ACS + 2 ' ,NumberOfTerms = ' 5' },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -715,8 +735,12 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">"new Degree{"&amp; $A$1 &amp;" =  "&amp; A3 &amp;"," &amp;$B$1 &amp; " =  '" &amp; B3 &amp; " ' ," &amp; $C$1 &amp; " = ' " &amp; $C3 &amp; "' },"</f>
+        <v>new Degree{DegreeID(PK) =  2,DegreeAbbrev =  'ACS+DB ' ,NumberOfTerms = ' 5' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -726,8 +750,12 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Degree{DegreeID(PK) =  3,DegreeAbbrev =  'ACS+NF ' ,NumberOfTerms = ' 5' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -736,6 +764,10 @@
       </c>
       <c r="C5" s="1">
         <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Degree{DegreeID(PK) =  4,DegreeAbbrev =  'ACS ' ,NumberOfTerms = ' 5' },</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,9 +1572,10 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1558,8 +1591,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1234</v>
       </c>
@@ -1575,8 +1611,12 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"new DegreePlan {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", " &amp;$C$1 &amp;"='" &amp;C2 &amp; "', "&amp;$D$1 &amp;"='" &amp;D2 &amp; "', "&amp;$E$1 &amp;"=" &amp;E2 &amp; "}"</f>
+        <v>new DegreePlan {DegreePlanID(pk)=1234, StudentID(fk)=533904, DegereePlanAbbrev='Slow and easy', DegreePlanName='Without Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1235</v>
       </c>
@@ -1592,8 +1632,12 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F9" si="0">"new DegreePlan {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"=" &amp;B3 &amp; ", " &amp;$C$1 &amp;"='" &amp;C3 &amp; "', "&amp;$D$1 &amp;"='" &amp;D3 &amp; "', "&amp;$E$1 &amp;"=" &amp;E3 &amp; "}"</f>
+        <v>new DegreePlan {DegreePlanID(pk)=1235, StudentID(fk)=533904, DegereePlanAbbrev='Super Fast', DegreePlanName='With Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1236</v>
       </c>
@@ -1609,8 +1653,12 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1236, StudentID(fk)=533489, DegereePlanAbbrev='Super Fast', DegreePlanName='With Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1237</v>
       </c>
@@ -1626,8 +1674,12 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1237, StudentID(fk)=533489, DegereePlanAbbrev='Slow and easy', DegreePlanName='Without Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1238</v>
       </c>
@@ -1643,8 +1695,12 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1238, StudentID(fk)=533976, DegereePlanAbbrev='Slow and easy', DegreePlanName='Without Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1239</v>
       </c>
@@ -1660,8 +1716,12 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1239, StudentID(fk)=533976, DegereePlanAbbrev='Super Fast', DegreePlanName='With Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1240</v>
       </c>
@@ -1677,8 +1737,12 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1240, StudentID(fk)=533714, DegereePlanAbbrev='Super Fast', DegreePlanName='With Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1241</v>
       </c>
@@ -1694,38 +1758,42 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan {DegreePlanID(pk)=1241, StudentID(fk)=533714, DegereePlanAbbrev='Slow and easy', DegreePlanName='Without Summer', DegreeRequirementID=4}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1807,19 +1875,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1835,8 +1905,11 @@
       <c r="E1" s="1">
         <v>919</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>533904</v>
       </c>
@@ -1852,8 +1925,12 @@
       <c r="E2" s="1">
         <v>91957050</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"new Student {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"='" &amp;B2 &amp; "', "&amp;$C$1 &amp;"='" &amp;C2 &amp; "', "&amp;$D$1 &amp;"=" &amp;D2 &amp;"}"</f>
+        <v>new Student {StudentID(pk)=533904, Family='Peddi', Given='Taraka', Snumber=S533904}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1869,8 +1946,12 @@
       <c r="E3" s="1">
         <v>919571539</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="0">"new Student {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"='" &amp;B3 &amp; "', "&amp;$C$1 &amp;"='" &amp;C3 &amp; "', "&amp;$D$1 &amp;"=" &amp;D3 &amp;"}"</f>
+        <v>new Student {StudentID(pk)=533976`, Family='Meenavilli', Given='Mehar Choudhary', Snumber=S533976}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>533489</v>
       </c>
@@ -1886,8 +1967,12 @@
       <c r="E4" s="1">
         <v>919568241</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student {StudentID(pk)=533489, Family='Dasari', Given='Venkat', Snumber=S533489}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>533714</v>
       </c>
@@ -1902,6 +1987,10 @@
       </c>
       <c r="E5" s="1">
         <v>919568635</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student {StudentID(pk)=533714, Family='Valluru', Given='Aakash', Snumber=S533714}</v>
       </c>
     </row>
   </sheetData>
@@ -1913,9 +2002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="82.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1933,7 +2027,9 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1951,7 +2047,10 @@
       <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", "&amp;$C$1 &amp;"=" &amp;C2 &amp; ", "&amp;$D$1 &amp;"=" &amp;D2 &amp; ", "&amp;$E$1 &amp;"='" &amp;E2 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=1, DegreePlanID(fk)=1235, Term=1, CreditID(fk)=542, Status='C'}</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1969,7 +2068,10 @@
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"=" &amp;B3 &amp; ", "&amp;$C$1 &amp;"=" &amp;C3 &amp; ", "&amp;$D$1 &amp;"=" &amp;D3 &amp; ", "&amp;$E$1 &amp;"='" &amp;E3 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=2, DegreePlanID(fk)=1235, Term=1, CreditID(fk)=563, Status='C'}</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1987,7 +2089,10 @@
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F12" si="0">"new Slot {" &amp;$A$1 &amp;"=" &amp;A4 &amp; ", " &amp;$B$1 &amp;"=" &amp;B4 &amp; ", "&amp;$C$1 &amp;"=" &amp;C4 &amp; ", "&amp;$D$1 &amp;"=" &amp;D4 &amp; ", "&amp;$E$1 &amp;"='" &amp;E4 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=3, DegreePlanID(fk)=1235, Term=1, CreditID(fk)=560, Status='C'}</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2005,7 +2110,10 @@
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=4, DegreePlanID(fk)=1235, Term=2, CreditID(fk)=644, Status='A'}</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2023,7 +2131,10 @@
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=5, DegreePlanID(fk)=1235, Term=2, CreditID(fk)=664, Status='A'}</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2041,7 +2152,10 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=6, DegreePlanID(fk)=1235, Term=2, CreditID(fk)=6, Status='A'}</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2059,7 +2173,10 @@
       <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=7, DegreePlanID(fk)=1235, Term=3, CreditID(fk)=618, Status='P'}</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2077,7 +2194,10 @@
       <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=8, DegreePlanID(fk)=1235, Term=3, CreditID(fk)=691, Status='P'}</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2095,7 +2215,10 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=9, DegreePlanID(fk)=1235, Term=4, CreditID(fk)=692, Status='P'}</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2113,7 +2236,10 @@
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=10, DegreePlanID(fk)=1235, Term=4, CreditID(fk)=2, Status='P'}</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2131,7 +2257,10 @@
       <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot {SlotID(pk)=11, DegreePlanID(fk)=1235, Term=4, CreditID(fk)=555, Status='P'}</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2149,7 +2278,10 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A13 &amp; ", " &amp;$B$1 &amp;"=" &amp;B13 &amp; ", "&amp;$C$1 &amp;"=" &amp;C13 &amp; ", "&amp;$D$1 &amp;"=" &amp;D13 &amp; ", "&amp;$E$1 &amp;"='" &amp;E13 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=12, DegreePlanID(fk)=1236, Term=1, CreditID(fk)=542, Status='A'}</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2167,7 +2299,10 @@
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A14 &amp; ", " &amp;$B$1 &amp;"=" &amp;B14 &amp; ", "&amp;$C$1 &amp;"=" &amp;C14 &amp; ", "&amp;$D$1 &amp;"=" &amp;D14 &amp; ", "&amp;$E$1 &amp;"='" &amp;E14 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=13, DegreePlanID(fk)=1236, Term=1, CreditID(fk)=563, Status='A'}</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2185,7 +2320,10 @@
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="str">
+        <f t="shared" ref="F15:F23" si="1">"new Slot {" &amp;$A$1 &amp;"=" &amp;A15 &amp; ", " &amp;$B$1 &amp;"=" &amp;B15 &amp; ", "&amp;$C$1 &amp;"=" &amp;C15 &amp; ", "&amp;$D$1 &amp;"=" &amp;D15 &amp; ", "&amp;$E$1 &amp;"='" &amp;E15 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=14, DegreePlanID(fk)=1236, Term=1, CreditID(fk)=560, Status='A'}</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2203,7 +2341,10 @@
       <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=15, DegreePlanID(fk)=1236, Term=2, CreditID(fk)=618, Status='P'}</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2221,7 +2362,10 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=16, DegreePlanID(fk)=1236, Term=2, CreditID(fk)=1, Status='P'}</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2239,7 +2383,10 @@
       <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=17, DegreePlanID(fk)=1236, Term=3, CreditID(fk)=691, Status='P'}</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2257,7 +2404,10 @@
       <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=18, DegreePlanID(fk)=1236, Term=3, CreditID(fk)=6, Status='P'}</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2275,7 +2425,10 @@
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=19, DegreePlanID(fk)=1236, Term=3, CreditID(fk)=664, Status='P'}</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2293,7 +2446,10 @@
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=20, DegreePlanID(fk)=1236, Term=4, CreditID(fk)=692, Status='P'}</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2311,7 +2467,10 @@
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=21, DegreePlanID(fk)=1236, Term=4, CreditID(fk)=555, Status='P'}</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2329,7 +2488,10 @@
       <c r="E23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new Slot {SlotID(pk)=22, DegreePlanID(fk)=1236, Term=4, CreditID(fk)=2, Status='P'}</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2347,7 +2509,10 @@
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A24 &amp; ", " &amp;$B$1 &amp;"=" &amp;B24 &amp; ", "&amp;$C$1 &amp;"=" &amp;C24 &amp; ", "&amp;$D$1 &amp;"=" &amp;D24 &amp; ", "&amp;$E$1 &amp;"='" &amp;E24 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=23, DegreePlanID(fk)=1239, Term=1, CreditID(fk)=542, Status='C'}</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2365,7 +2530,10 @@
       <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A25 &amp; ", " &amp;$B$1 &amp;"=" &amp;B25 &amp; ", "&amp;$C$1 &amp;"=" &amp;C25 &amp; ", "&amp;$D$1 &amp;"=" &amp;D25 &amp; ", "&amp;$E$1 &amp;"='" &amp;E25 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=24, DegreePlanID(fk)=1239, Term=1, CreditID(fk)=563, Status='C'}</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2383,7 +2551,10 @@
       <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="str">
+        <f t="shared" ref="F26:F34" si="2">"new Slot {" &amp;$A$1 &amp;"=" &amp;A26 &amp; ", " &amp;$B$1 &amp;"=" &amp;B26 &amp; ", "&amp;$C$1 &amp;"=" &amp;C26 &amp; ", "&amp;$D$1 &amp;"=" &amp;D26 &amp; ", "&amp;$E$1 &amp;"='" &amp;E26 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=25, DegreePlanID(fk)=1239, Term=1, CreditID(fk)=560, Status='C'}</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2401,7 +2572,10 @@
       <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=26, DegreePlanID(fk)=1239, Term=2, CreditID(fk)=644, Status='A'}</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2419,7 +2593,10 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=27, DegreePlanID(fk)=1239, Term=2, CreditID(fk)=664, Status='A'}</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2437,7 +2614,10 @@
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=28, DegreePlanID(fk)=1239, Term=2, CreditID(fk)=6, Status='A'}</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2455,7 +2635,10 @@
       <c r="E30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=29, DegreePlanID(fk)=1239, Term=3, CreditID(fk)=618, Status='P'}</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2473,6 +2656,10 @@
       <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=30, DegreePlanID(fk)=1239, Term=3, CreditID(fk)=691, Status='P'}</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2490,8 +2677,12 @@
       <c r="E32" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=31, DegreePlanID(fk)=1239, Term=4, CreditID(fk)=692, Status='P'}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2507,8 +2698,12 @@
       <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=32, DegreePlanID(fk)=1239, Term=4, CreditID(fk)=2, Status='P'}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2524,8 +2719,12 @@
       <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>new Slot {SlotID(pk)=33, DegreePlanID(fk)=1239, Term=4, CreditID(fk)=555, Status='P'}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2541,8 +2740,12 @@
       <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A35 &amp; ", " &amp;$B$1 &amp;"=" &amp;B35 &amp; ", "&amp;$C$1 &amp;"=" &amp;C35 &amp; ", "&amp;$D$1 &amp;"=" &amp;D35 &amp; ", "&amp;$E$1 &amp;"='" &amp;E35 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=34, DegreePlanID(fk)=1240, Term=1, CreditID(fk)=542, Status='A'}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2558,8 +2761,12 @@
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
+        <f>"new Slot {" &amp;$A$1 &amp;"=" &amp;A36 &amp; ", " &amp;$B$1 &amp;"=" &amp;B36 &amp; ", "&amp;$C$1 &amp;"=" &amp;C36 &amp; ", "&amp;$D$1 &amp;"=" &amp;D36 &amp; ", "&amp;$E$1 &amp;"='" &amp;E36 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=35, DegreePlanID(fk)=1240, Term=1, CreditID(fk)=563, Status='A'}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2575,8 +2782,12 @@
       <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="str">
+        <f t="shared" ref="F37:F45" si="3">"new Slot {" &amp;$A$1 &amp;"=" &amp;A37 &amp; ", " &amp;$B$1 &amp;"=" &amp;B37 &amp; ", "&amp;$C$1 &amp;"=" &amp;C37 &amp; ", "&amp;$D$1 &amp;"=" &amp;D37 &amp; ", "&amp;$E$1 &amp;"='" &amp;E37 &amp;"'}"</f>
+        <v>new Slot {SlotID(pk)=36, DegreePlanID(fk)=1240, Term=1, CreditID(fk)=560, Status='A'}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2592,8 +2803,12 @@
       <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=37, DegreePlanID(fk)=1240, Term=2, CreditID(fk)=618, Status='P'}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2609,8 +2824,12 @@
       <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=38, DegreePlanID(fk)=1240, Term=2, CreditID(fk)=1, Status='P'}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2626,8 +2845,12 @@
       <c r="E40" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=39, DegreePlanID(fk)=1240, Term=3, CreditID(fk)=691, Status='P'}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2643,8 +2866,12 @@
       <c r="E41" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=40, DegreePlanID(fk)=1240, Term=3, CreditID(fk)=6, Status='P'}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2660,8 +2887,12 @@
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=41, DegreePlanID(fk)=1240, Term=3, CreditID(fk)=664, Status='P'}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2677,8 +2908,12 @@
       <c r="E43" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=42, DegreePlanID(fk)=1240, Term=4, CreditID(fk)=692, Status='P'}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2694,8 +2929,12 @@
       <c r="E44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=43, DegreePlanID(fk)=1240, Term=4, CreditID(fk)=555, Status='P'}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2711,22 +2950,26 @@
       <c r="E45" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new Slot {SlotID(pk)=44, DegreePlanID(fk)=1240, Term=4, CreditID(fk)=2, Status='P'}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2940,10 +3183,10 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="116.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -2959,7 +3202,9 @@
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,7 +3223,10 @@
       <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="11" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", "&amp;$C$1 &amp;"=" &amp;C2 &amp; ", "&amp;$D$1 &amp;"='" &amp;D2 &amp; "', "&amp;$E$1 &amp;"='" &amp;E2 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=1,  StudentID(fk)=533904, Term(fk)=1, TermAbbr='F18', TermName='Fall2018'}</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,7 +3245,10 @@
       <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"=" &amp;B3 &amp; ", "&amp;$C$1 &amp;"=" &amp;C3 &amp; ", "&amp;$D$1 &amp;"='" &amp;D3 &amp; "', "&amp;$E$1 &amp;"='" &amp;E3 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=2,  StudentID(fk)=533904, Term(fk)=2, TermAbbr='S19', TermName='Spring2019'}</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3016,7 +3267,10 @@
       <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A4 &amp; ", " &amp;$B$1 &amp;"=" &amp;B4 &amp; ", "&amp;$C$1 &amp;"=" &amp;C4 &amp; ", "&amp;$D$1 &amp;"='" &amp;D4 &amp; "', "&amp;$E$1 &amp;"='" &amp;E4 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=3,  StudentID(fk)=533904, Term(fk)=3, TermAbbr='Su19', TermName='Summer2019'}</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,7 +3289,10 @@
       <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A5 &amp; ", " &amp;$B$1 &amp;"=" &amp;B5 &amp; ", "&amp;$C$1 &amp;"=" &amp;C5 &amp; ", "&amp;$D$1 &amp;"='" &amp;D5 &amp; "', "&amp;$E$1 &amp;"='" &amp;E5 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=4,  StudentID(fk)=533904, Term(fk)=4, TermAbbr='F19', TermName='Fall2019'}</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,7 +3311,10 @@
       <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A6 &amp; ", " &amp;$B$1 &amp;"=" &amp;B6 &amp; ", "&amp;$C$1 &amp;"=" &amp;C6 &amp; ", "&amp;$D$1 &amp;"='" &amp;D6 &amp; "', "&amp;$E$1 &amp;"='" &amp;E6 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=5,  StudentID(fk)=533489, Term(fk)=3, TermAbbr='S18', TermName='Spring2018'}</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,7 +3333,10 @@
       <c r="E7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A7 &amp; ", " &amp;$B$1 &amp;"=" &amp;B7 &amp; ", "&amp;$C$1 &amp;"=" &amp;C7 &amp; ", "&amp;$D$1 &amp;"='" &amp;D7 &amp; "', "&amp;$E$1 &amp;"='" &amp;E7 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=6,  StudentID(fk)=533489, Term(fk)=4, TermAbbr='Su18', TermName='Summer2018'}</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,7 +3355,10 @@
       <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A8 &amp; ", " &amp;$B$1 &amp;"=" &amp;B8 &amp; ", "&amp;$C$1 &amp;"=" &amp;C8 &amp; ", "&amp;$D$1 &amp;"='" &amp;D8 &amp; "', "&amp;$E$1 &amp;"='" &amp;E8 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=7,  StudentID(fk)=533489, Term(fk)=5, TermAbbr='F18', TermName='Fall2018'}</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,7 +3377,10 @@
       <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A9 &amp; ", " &amp;$B$1 &amp;"=" &amp;B9 &amp; ", "&amp;$C$1 &amp;"=" &amp;C9 &amp; ", "&amp;$D$1 &amp;"='" &amp;D9 &amp; "', "&amp;$E$1 &amp;"='" &amp;E9 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=8,  StudentID(fk)=533489, Term(fk)=6, TermAbbr='S19', TermName='Spring2019'}</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3130,7 +3399,10 @@
       <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="4" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A10 &amp; ", " &amp;$B$1 &amp;"=" &amp;B10 &amp; ", "&amp;$C$1 &amp;"=" &amp;C10 &amp; ", "&amp;$D$1 &amp;"='" &amp;D10 &amp; "', "&amp;$E$1 &amp;"='" &amp;E10 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=9,  StudentID(fk)=533976, Term(fk)=1, TermAbbr='F19', TermName='Fall2019'}</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,7 +3421,10 @@
       <c r="E11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="4" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A11 &amp; ", " &amp;$B$1 &amp;"=" &amp;B11 &amp; ", "&amp;$C$1 &amp;"=" &amp;C11 &amp; ", "&amp;$D$1 &amp;"='" &amp;D11 &amp; "', "&amp;$E$1 &amp;"='" &amp;E11 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=10,  StudentID(fk)=533976, Term(fk)=2, TermAbbr='S20', TermName='Spring2020'}</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,7 +3443,10 @@
       <c r="E12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A12 &amp; ", " &amp;$B$1 &amp;"=" &amp;B12 &amp; ", "&amp;$C$1 &amp;"=" &amp;C12 &amp; ", "&amp;$D$1 &amp;"='" &amp;D12 &amp; "', "&amp;$E$1 &amp;"='" &amp;E12 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=11,  StudentID(fk)=533976, Term(fk)=3, TermAbbr='Su20', TermName='Summer2020'}</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3187,7 +3465,10 @@
       <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="4" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A13 &amp; ", " &amp;$B$1 &amp;"=" &amp;B13 &amp; ", "&amp;$C$1 &amp;"=" &amp;C13 &amp; ", "&amp;$D$1 &amp;"='" &amp;D13 &amp; "', "&amp;$E$1 &amp;"='" &amp;E13 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=12,  StudentID(fk)=533976, Term(fk)=4, TermAbbr='F20', TermName='Fall2020'}</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,7 +3487,10 @@
       <c r="E14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="5" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A14 &amp; ", " &amp;$B$1 &amp;"=" &amp;B14 &amp; ", "&amp;$C$1 &amp;"=" &amp;C14 &amp; ", "&amp;$D$1 &amp;"='" &amp;D14 &amp; "', "&amp;$E$1 &amp;"='" &amp;E14 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=13,  StudentID(fk)=533714, Term(fk)=3, TermAbbr='S19', TermName='Spring2019'}</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3225,7 +3509,10 @@
       <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="5" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A15 &amp; ", " &amp;$B$1 &amp;"=" &amp;B15 &amp; ", "&amp;$C$1 &amp;"=" &amp;C15 &amp; ", "&amp;$D$1 &amp;"='" &amp;D15 &amp; "', "&amp;$E$1 &amp;"='" &amp;E15 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=14,  StudentID(fk)=533714, Term(fk)=4, TermAbbr='Su19', TermName='Summer2019'}</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,7 +3531,10 @@
       <c r="E16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="5" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A16 &amp; ", " &amp;$B$1 &amp;"=" &amp;B16 &amp; ", "&amp;$C$1 &amp;"=" &amp;C16 &amp; ", "&amp;$D$1 &amp;"='" &amp;D16 &amp; "', "&amp;$E$1 &amp;"='" &amp;E16 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=15,  StudentID(fk)=533714, Term(fk)=5, TermAbbr='F19', TermName='Fall2019'}</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,7 +3553,10 @@
       <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="5" t="str">
+        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A17 &amp; ", " &amp;$B$1 &amp;"=" &amp;B17 &amp; ", "&amp;$C$1 &amp;"=" &amp;C17 &amp; ", "&amp;$D$1 &amp;"='" &amp;D17 &amp; "', "&amp;$E$1 &amp;"='" &amp;E17 &amp;"'}"</f>
+        <v>new StudentTerm {StudentTerm(pk)=16,  StudentID(fk)=533714, Term(fk)=6, TermAbbr='S20', TermName='Spring2020'}</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>

--- a/Group4 no preq.xlsx
+++ b/Group4 no preq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Requirement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1022,7 @@
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,7 +1035,9 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1044,9 +1047,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>542</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>"new DegreeCredit {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", " &amp;$C$1 &amp;"=" &amp;C2 &amp;"}"</f>
+        <v>new DegreeCredit {DegreeCreditID(PK)=1, DegreeID=1, CreditID=460}</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1056,9 +1062,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>563</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>"new DegreeCredit {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"=" &amp;B3 &amp; ", " &amp;$C$1 &amp;"=" &amp;C3 &amp;"}"</f>
+        <v>new DegreeCredit {DegreeCreditID(PK)=2, DegreeID=1, CreditID=356}</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1068,9 +1077,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>560</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D49" si="0">"new DegreeCredit {" &amp;$A$1 &amp;"=" &amp;A4 &amp; ", " &amp;$B$1 &amp;"=" &amp;B4 &amp; ", " &amp;$C$1 &amp;"=" &amp;C4 &amp;"}"</f>
+        <v>new DegreeCredit {DegreeCreditID(PK)=3, DegreeID=1, CreditID=542}</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1080,9 +1092,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>664</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=4, DegreeID=1, CreditID=563}</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1092,9 +1107,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>618</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=5, DegreeID=1, CreditID=560}</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1104,9 +1122,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>555</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=6, DegreeID=1, CreditID=664}</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1116,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>691</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=7, DegreeID=1, CreditID=618}</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1128,9 +1152,12 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>692</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=8, DegreeID=1, CreditID=555}</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1140,9 +1167,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=9, DegreeID=1, CreditID=691}</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1152,9 +1182,12 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=10, DegreeID=1, CreditID=692}</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1164,33 +1197,42 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=11, DegreeID=1, CreditID=6}</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>542</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=12, DegreeID=1, CreditID=1}</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>563</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=13, DegreeID=1, CreditID=2}</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1200,9 +1242,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>560</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=14, DegreeID=2, CreditID=460}</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1212,9 +1257,12 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>664</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=15, DegreeID=2, CreditID=542}</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1224,9 +1272,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>618</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=16, DegreeID=2, CreditID=563}</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1236,9 +1287,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>555</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=17, DegreeID=2, CreditID=560}</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1248,9 +1302,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>691</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=18, DegreeID=2, CreditID=664}</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1260,9 +1317,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>692</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=19, DegreeID=2, CreditID=618}</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1272,9 +1332,12 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=20, DegreeID=2, CreditID=555}</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1284,9 +1347,12 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=21, DegreeID=2, CreditID=691}</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1296,31 +1362,41 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=22, DegreeID=2, CreditID=692}</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>542</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=23, DegreeID=2, CreditID=6}</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>563</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=24, DegreeID=2, CreditID=1}</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,10 +1404,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>560</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=25, DegreeID=2, CreditID=2}</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1422,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>664</v>
+        <v>356</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=26, DegreeID=3, CreditID=356}</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1437,11 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>618</v>
+        <v>542</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=27, DegreeID=3, CreditID=542}</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1452,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>555</v>
+        <v>563</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=28, DegreeID=3, CreditID=563}</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1467,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>691</v>
+        <v>560</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=29, DegreeID=3, CreditID=560}</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1482,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>692</v>
+        <v>664</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=30, DegreeID=3, CreditID=664}</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1497,14 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=31, DegreeID=3, CreditID=618}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1408,10 +1512,14 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=32, DegreeID=3, CreditID=555}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1419,54 +1527,74 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=33, DegreeID=3, CreditID=691}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=34, DegreeID=3, CreditID=692}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=35, DegreeID=3, CreditID=6}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=36, DegreeID=3, CreditID=1}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=37, DegreeID=3, CreditID=2}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1474,10 +1602,14 @@
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=38, DegreeID=4, CreditID=542}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1485,10 +1617,14 @@
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=39, DegreeID=4, CreditID=563}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1496,10 +1632,14 @@
         <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=40, DegreeID=4, CreditID=560}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1507,10 +1647,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=41, DegreeID=4, CreditID=664}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1518,10 +1662,14 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=42, DegreeID=4, CreditID=618}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1529,10 +1677,14 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=43, DegreeID=4, CreditID=555}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1540,17 +1692,81 @@
         <v>4</v>
       </c>
       <c r="C45" s="1">
+        <v>691</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=44, DegreeID=4, CreditID=691}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>692</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=45, DegreeID=4, CreditID=692}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=46, DegreeID=4, CreditID=6}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=47, DegreeID=4, CreditID=1}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreeCredit {DegreeCreditID(PK)=48, DegreeID=4, CreditID=2}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1561,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3224,7 +3440,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="11" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", "&amp;$C$1 &amp;"=" &amp;C2 &amp; ", "&amp;$D$1 &amp;"='" &amp;D2 &amp; "', "&amp;$E$1 &amp;"='" &amp;E2 &amp;"'}"</f>
+        <f t="shared" ref="F2:F17" si="0">"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A2 &amp; ", " &amp;$B$1 &amp;"=" &amp;B2 &amp; ", "&amp;$C$1 &amp;"=" &amp;C2 &amp; ", "&amp;$D$1 &amp;"='" &amp;D2 &amp; "', "&amp;$E$1 &amp;"='" &amp;E2 &amp;"'}"</f>
         <v>new StudentTerm {StudentTerm(pk)=1,  StudentID(fk)=533904, Term(fk)=1, TermAbbr='F18', TermName='Fall2018'}</v>
       </c>
       <c r="G2" s="1"/>
@@ -3246,7 +3462,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A3 &amp; ", " &amp;$B$1 &amp;"=" &amp;B3 &amp; ", "&amp;$C$1 &amp;"=" &amp;C3 &amp; ", "&amp;$D$1 &amp;"='" &amp;D3 &amp; "', "&amp;$E$1 &amp;"='" &amp;E3 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=2,  StudentID(fk)=533904, Term(fk)=2, TermAbbr='S19', TermName='Spring2019'}</v>
       </c>
       <c r="G3" s="1"/>
@@ -3268,7 +3484,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A4 &amp; ", " &amp;$B$1 &amp;"=" &amp;B4 &amp; ", "&amp;$C$1 &amp;"=" &amp;C4 &amp; ", "&amp;$D$1 &amp;"='" &amp;D4 &amp; "', "&amp;$E$1 &amp;"='" &amp;E4 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=3,  StudentID(fk)=533904, Term(fk)=3, TermAbbr='Su19', TermName='Summer2019'}</v>
       </c>
       <c r="G4" s="1"/>
@@ -3290,7 +3506,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A5 &amp; ", " &amp;$B$1 &amp;"=" &amp;B5 &amp; ", "&amp;$C$1 &amp;"=" &amp;C5 &amp; ", "&amp;$D$1 &amp;"='" &amp;D5 &amp; "', "&amp;$E$1 &amp;"='" &amp;E5 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=4,  StudentID(fk)=533904, Term(fk)=4, TermAbbr='F19', TermName='Fall2019'}</v>
       </c>
       <c r="G5" s="1"/>
@@ -3312,7 +3528,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A6 &amp; ", " &amp;$B$1 &amp;"=" &amp;B6 &amp; ", "&amp;$C$1 &amp;"=" &amp;C6 &amp; ", "&amp;$D$1 &amp;"='" &amp;D6 &amp; "', "&amp;$E$1 &amp;"='" &amp;E6 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=5,  StudentID(fk)=533489, Term(fk)=3, TermAbbr='S18', TermName='Spring2018'}</v>
       </c>
       <c r="G6" s="1"/>
@@ -3334,7 +3550,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A7 &amp; ", " &amp;$B$1 &amp;"=" &amp;B7 &amp; ", "&amp;$C$1 &amp;"=" &amp;C7 &amp; ", "&amp;$D$1 &amp;"='" &amp;D7 &amp; "', "&amp;$E$1 &amp;"='" &amp;E7 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=6,  StudentID(fk)=533489, Term(fk)=4, TermAbbr='Su18', TermName='Summer2018'}</v>
       </c>
       <c r="G7" s="1"/>
@@ -3356,7 +3572,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A8 &amp; ", " &amp;$B$1 &amp;"=" &amp;B8 &amp; ", "&amp;$C$1 &amp;"=" &amp;C8 &amp; ", "&amp;$D$1 &amp;"='" &amp;D8 &amp; "', "&amp;$E$1 &amp;"='" &amp;E8 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=7,  StudentID(fk)=533489, Term(fk)=5, TermAbbr='F18', TermName='Fall2018'}</v>
       </c>
       <c r="G8" s="1"/>
@@ -3378,7 +3594,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A9 &amp; ", " &amp;$B$1 &amp;"=" &amp;B9 &amp; ", "&amp;$C$1 &amp;"=" &amp;C9 &amp; ", "&amp;$D$1 &amp;"='" &amp;D9 &amp; "', "&amp;$E$1 &amp;"='" &amp;E9 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=8,  StudentID(fk)=533489, Term(fk)=6, TermAbbr='S19', TermName='Spring2019'}</v>
       </c>
       <c r="G9" s="1"/>
@@ -3400,7 +3616,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A10 &amp; ", " &amp;$B$1 &amp;"=" &amp;B10 &amp; ", "&amp;$C$1 &amp;"=" &amp;C10 &amp; ", "&amp;$D$1 &amp;"='" &amp;D10 &amp; "', "&amp;$E$1 &amp;"='" &amp;E10 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=9,  StudentID(fk)=533976, Term(fk)=1, TermAbbr='F19', TermName='Fall2019'}</v>
       </c>
       <c r="G10" s="1"/>
@@ -3422,7 +3638,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A11 &amp; ", " &amp;$B$1 &amp;"=" &amp;B11 &amp; ", "&amp;$C$1 &amp;"=" &amp;C11 &amp; ", "&amp;$D$1 &amp;"='" &amp;D11 &amp; "', "&amp;$E$1 &amp;"='" &amp;E11 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=10,  StudentID(fk)=533976, Term(fk)=2, TermAbbr='S20', TermName='Spring2020'}</v>
       </c>
       <c r="G11" s="1"/>
@@ -3444,7 +3660,7 @@
         <v>71</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A12 &amp; ", " &amp;$B$1 &amp;"=" &amp;B12 &amp; ", "&amp;$C$1 &amp;"=" &amp;C12 &amp; ", "&amp;$D$1 &amp;"='" &amp;D12 &amp; "', "&amp;$E$1 &amp;"='" &amp;E12 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=11,  StudentID(fk)=533976, Term(fk)=3, TermAbbr='Su20', TermName='Summer2020'}</v>
       </c>
       <c r="G12" s="1"/>
@@ -3466,7 +3682,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A13 &amp; ", " &amp;$B$1 &amp;"=" &amp;B13 &amp; ", "&amp;$C$1 &amp;"=" &amp;C13 &amp; ", "&amp;$D$1 &amp;"='" &amp;D13 &amp; "', "&amp;$E$1 &amp;"='" &amp;E13 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=12,  StudentID(fk)=533976, Term(fk)=4, TermAbbr='F20', TermName='Fall2020'}</v>
       </c>
       <c r="G13" s="1"/>
@@ -3488,7 +3704,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A14 &amp; ", " &amp;$B$1 &amp;"=" &amp;B14 &amp; ", "&amp;$C$1 &amp;"=" &amp;C14 &amp; ", "&amp;$D$1 &amp;"='" &amp;D14 &amp; "', "&amp;$E$1 &amp;"='" &amp;E14 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=13,  StudentID(fk)=533714, Term(fk)=3, TermAbbr='S19', TermName='Spring2019'}</v>
       </c>
       <c r="G14" s="1"/>
@@ -3510,7 +3726,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A15 &amp; ", " &amp;$B$1 &amp;"=" &amp;B15 &amp; ", "&amp;$C$1 &amp;"=" &amp;C15 &amp; ", "&amp;$D$1 &amp;"='" &amp;D15 &amp; "', "&amp;$E$1 &amp;"='" &amp;E15 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=14,  StudentID(fk)=533714, Term(fk)=4, TermAbbr='Su19', TermName='Summer2019'}</v>
       </c>
       <c r="G15" s="1"/>
@@ -3532,7 +3748,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A16 &amp; ", " &amp;$B$1 &amp;"=" &amp;B16 &amp; ", "&amp;$C$1 &amp;"=" &amp;C16 &amp; ", "&amp;$D$1 &amp;"='" &amp;D16 &amp; "', "&amp;$E$1 &amp;"='" &amp;E16 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=15,  StudentID(fk)=533714, Term(fk)=5, TermAbbr='F19', TermName='Fall2019'}</v>
       </c>
       <c r="G16" s="1"/>
@@ -3554,7 +3770,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>"new StudentTerm {" &amp;$A$1 &amp;"=" &amp;A17 &amp; ", " &amp;$B$1 &amp;"=" &amp;B17 &amp; ", "&amp;$C$1 &amp;"=" &amp;C17 &amp; ", "&amp;$D$1 &amp;"='" &amp;D17 &amp; "', "&amp;$E$1 &amp;"='" &amp;E17 &amp;"'}"</f>
+        <f t="shared" si="0"/>
         <v>new StudentTerm {StudentTerm(pk)=16,  StudentID(fk)=533714, Term(fk)=6, TermAbbr='S20', TermName='Spring2020'}</v>
       </c>
     </row>
